--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지9.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027F34B0-4DA7-45BC-824A-60B3AD756941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734366F5-6F0F-4911-8261-E2356B3E549D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1377">
   <si>
     <t>Time</t>
   </si>
@@ -4165,6 +4165,9 @@
   <si>
     <t>fixed-label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
   </si>
 </sst>
 </file>
@@ -4536,19 +4539,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="56.75" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4562,10 +4564,10 @@
         <v>1375</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4580,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4613,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4628,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4661,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4676,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4691,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4706,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4739,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4757,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -4772,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4820,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -4835,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -4850,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4865,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4880,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -4898,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -4916,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -4931,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -4946,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -4961,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -4976,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -5006,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -5021,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -5036,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -5054,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -5069,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -5084,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -5099,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -5117,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -5132,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -5147,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -5162,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -5177,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -5210,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -5225,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -5243,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -5258,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -5276,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -5309,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -5324,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -5339,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -5354,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -5369,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -5384,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -5399,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -5417,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -5432,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -5447,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -5465,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -5480,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -5510,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -5528,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -5543,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -5558,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -5573,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -5588,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -5603,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -5618,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -5633,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -5648,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -5663,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -5678,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -5693,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -5708,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -5726,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -5741,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -5759,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>154</v>
       </c>
@@ -5774,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>156</v>
       </c>
@@ -5789,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -5804,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -5819,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -5834,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -5849,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -5864,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -5879,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -5894,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -5909,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -5924,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -5939,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -5954,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -5984,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -5999,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -6017,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -6035,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -6065,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -6080,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -6110,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -6125,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -6140,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -6170,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -6185,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -6200,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -6215,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -6230,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -6266,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -6284,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -6299,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -6314,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -6329,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>226</v>
       </c>
@@ -6344,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>228</v>
       </c>
@@ -6359,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>230</v>
       </c>
@@ -6374,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -6389,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>234</v>
       </c>
@@ -6404,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>236</v>
       </c>
@@ -6419,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>238</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -6449,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>242</v>
       </c>
@@ -6464,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>244</v>
       </c>
@@ -6479,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>246</v>
       </c>
@@ -6494,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>248</v>
       </c>
@@ -6512,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -6527,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -6542,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -6557,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -6572,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -6587,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -6602,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -6617,7 +6619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -6632,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -6647,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -6662,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -6677,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -6692,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -6707,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -6722,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -6740,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -6755,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -6770,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>284</v>
       </c>
@@ -6785,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -6800,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -6815,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -6848,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -6863,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>296</v>
       </c>
@@ -6878,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -6893,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -6908,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -6926,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -6956,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -6971,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>310</v>
       </c>
@@ -6986,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>312</v>
       </c>
@@ -7001,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>314</v>
       </c>
@@ -7019,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -7034,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>318</v>
       </c>
@@ -7049,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -7064,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -7079,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -7094,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>326</v>
       </c>
@@ -7109,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>328</v>
       </c>
@@ -7127,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>330</v>
       </c>
@@ -7142,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -7157,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>334</v>
       </c>
@@ -7172,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -7190,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -7205,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>340</v>
       </c>
@@ -7220,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -7235,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>344</v>
       </c>
@@ -7250,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>346</v>
       </c>
@@ -7265,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -7280,7 +7282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -7295,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -7313,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -7328,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -7343,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -7358,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>360</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>362</v>
       </c>
@@ -7391,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -7406,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -7424,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>368</v>
       </c>
@@ -7442,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>370</v>
       </c>
@@ -7457,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>372</v>
       </c>
@@ -7472,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>374</v>
       </c>
@@ -7487,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>376</v>
       </c>
@@ -7502,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -7517,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -7532,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -7547,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -7562,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -7577,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -7592,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -7607,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -7637,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -7652,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -7667,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -7682,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -7700,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -7718,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -7736,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -7754,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -7769,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -7787,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -7802,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -7817,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -7832,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -7847,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -7862,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -7877,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -7895,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -7910,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -7925,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -7940,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>434</v>
       </c>
@@ -7955,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -7970,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -7985,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -8015,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>444</v>
       </c>
@@ -8030,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>446</v>
       </c>
@@ -8045,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>448</v>
       </c>
@@ -8060,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>450</v>
       </c>
@@ -8075,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -8090,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>454</v>
       </c>
@@ -8108,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>456</v>
       </c>
@@ -8126,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>458</v>
       </c>
@@ -8141,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>460</v>
       </c>
@@ -8156,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -8171,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>464</v>
       </c>
@@ -8186,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>466</v>
       </c>
@@ -8201,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>468</v>
       </c>
@@ -8216,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>470</v>
       </c>
@@ -8231,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>472</v>
       </c>
@@ -8246,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>474</v>
       </c>
@@ -8261,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>476</v>
       </c>
@@ -8276,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>478</v>
       </c>
@@ -8291,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>480</v>
       </c>
@@ -8306,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>482</v>
       </c>
@@ -8321,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -8336,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>486</v>
       </c>
@@ -8351,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -8366,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -8381,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -8396,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -8411,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>496</v>
       </c>
@@ -8426,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>498</v>
       </c>
@@ -8441,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>500</v>
       </c>
@@ -8456,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -8471,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -8486,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>506</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>508</v>
       </c>
@@ -8516,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>510</v>
       </c>
@@ -8531,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>512</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>514</v>
       </c>
@@ -8561,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>516</v>
       </c>
@@ -8576,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>518</v>
       </c>
@@ -8591,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>520</v>
       </c>
@@ -8606,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>522</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>524</v>
       </c>
@@ -8636,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>526</v>
       </c>
@@ -8651,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>528</v>
       </c>
@@ -8669,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>530</v>
       </c>
@@ -8684,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>532</v>
       </c>
@@ -8699,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>534</v>
       </c>
@@ -8714,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>536</v>
       </c>
@@ -8729,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>538</v>
       </c>
@@ -8744,7 +8746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>540</v>
       </c>
@@ -8759,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>542</v>
       </c>
@@ -8774,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>544</v>
       </c>
@@ -8789,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>546</v>
       </c>
@@ -8804,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>548</v>
       </c>
@@ -8819,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>550</v>
       </c>
@@ -8834,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>552</v>
       </c>
@@ -8849,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>554</v>
       </c>
@@ -8864,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>556</v>
       </c>
@@ -8879,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>558</v>
       </c>
@@ -8897,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>560</v>
       </c>
@@ -8912,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>562</v>
       </c>
@@ -8927,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>564</v>
       </c>
@@ -8942,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>566</v>
       </c>
@@ -8960,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -8975,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>570</v>
       </c>
@@ -8990,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>572</v>
       </c>
@@ -9005,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>574</v>
       </c>
@@ -9020,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>576</v>
       </c>
@@ -9035,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>578</v>
       </c>
@@ -9050,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>580</v>
       </c>
@@ -9065,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -9098,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>586</v>
       </c>
@@ -9116,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>588</v>
       </c>
@@ -9134,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>590</v>
       </c>
@@ -9149,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>592</v>
       </c>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>594</v>
       </c>
@@ -9179,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>595</v>
       </c>
@@ -9194,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>597</v>
       </c>
@@ -9209,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>599</v>
       </c>
@@ -9224,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>601</v>
       </c>
@@ -9239,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>603</v>
       </c>
@@ -9254,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>605</v>
       </c>
@@ -9269,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>607</v>
       </c>
@@ -9284,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>609</v>
       </c>
@@ -9299,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>611</v>
       </c>
@@ -9314,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>613</v>
       </c>
@@ -9329,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>615</v>
       </c>
@@ -9344,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>617</v>
       </c>
@@ -9359,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>619</v>
       </c>
@@ -9374,7 +9376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>621</v>
       </c>
@@ -9389,7 +9391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>623</v>
       </c>
@@ -9404,7 +9406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>625</v>
       </c>
@@ -9419,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>627</v>
       </c>
@@ -9437,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>629</v>
       </c>
@@ -9452,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>631</v>
       </c>
@@ -9467,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>633</v>
       </c>
@@ -9485,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>635</v>
       </c>
@@ -9500,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>637</v>
       </c>
@@ -9515,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>639</v>
       </c>
@@ -9530,7 +9532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>641</v>
       </c>
@@ -9545,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>643</v>
       </c>
@@ -9560,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>645</v>
       </c>
@@ -9575,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>647</v>
       </c>
@@ -9590,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>649</v>
       </c>
@@ -9605,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>651</v>
       </c>
@@ -9620,7 +9622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>653</v>
       </c>
@@ -9635,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>655</v>
       </c>
@@ -9650,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>657</v>
       </c>
@@ -9665,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>659</v>
       </c>
@@ -9683,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>661</v>
       </c>
@@ -9698,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>663</v>
       </c>
@@ -9716,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>665</v>
       </c>
@@ -9731,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>667</v>
       </c>
@@ -9746,7 +9748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>669</v>
       </c>
@@ -9761,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>671</v>
       </c>
@@ -9776,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>673</v>
       </c>
@@ -9791,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>675</v>
       </c>
@@ -9806,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>677</v>
       </c>
@@ -9821,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>679</v>
       </c>
@@ -9836,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>681</v>
       </c>
@@ -9851,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>683</v>
       </c>
@@ -9866,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>685</v>
       </c>
@@ -9881,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>687</v>
       </c>
@@ -9896,7 +9898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>689</v>
       </c>
@@ -9911,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>691</v>
       </c>
@@ -9926,7 +9928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>693</v>
       </c>
@@ -9941,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>695</v>
       </c>
@@ -9956,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>697</v>
       </c>
@@ -9971,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>699</v>
       </c>
@@ -9986,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>701</v>
       </c>
@@ -10001,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>703</v>
       </c>
@@ -10016,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>705</v>
       </c>
@@ -10034,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>707</v>
       </c>
@@ -10049,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>708</v>
       </c>
@@ -10064,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>710</v>
       </c>
@@ -10079,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>712</v>
       </c>
@@ -10094,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>714</v>
       </c>
@@ -10109,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>716</v>
       </c>
@@ -10124,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>718</v>
       </c>
@@ -10139,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>720</v>
       </c>
@@ -10154,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>722</v>
       </c>
@@ -10169,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>724</v>
       </c>
@@ -10184,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>726</v>
       </c>
@@ -10199,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>728</v>
       </c>
@@ -10214,7 +10216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>730</v>
       </c>
@@ -10229,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>732</v>
       </c>
@@ -10244,7 +10246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>734</v>
       </c>
@@ -10259,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>736</v>
       </c>
@@ -10274,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>738</v>
       </c>
@@ -10289,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>740</v>
       </c>
@@ -10304,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>742</v>
       </c>
@@ -10319,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>744</v>
       </c>
@@ -10334,7 +10336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>746</v>
       </c>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>748</v>
       </c>
@@ -10364,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>750</v>
       </c>
@@ -10379,7 +10381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>752</v>
       </c>
@@ -10394,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>753</v>
       </c>
@@ -10409,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>755</v>
       </c>
@@ -10424,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>757</v>
       </c>
@@ -10439,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>759</v>
       </c>
@@ -10454,7 +10456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>761</v>
       </c>
@@ -10469,7 +10471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>763</v>
       </c>
@@ -10484,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>765</v>
       </c>
@@ -10502,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>767</v>
       </c>
@@ -10517,7 +10519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>769</v>
       </c>
@@ -10532,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>771</v>
       </c>
@@ -10547,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>773</v>
       </c>
@@ -10562,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>775</v>
       </c>
@@ -10577,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>777</v>
       </c>
@@ -10592,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>779</v>
       </c>
@@ -10607,7 +10609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>781</v>
       </c>
@@ -10622,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>783</v>
       </c>
@@ -10637,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>785</v>
       </c>
@@ -10652,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>787</v>
       </c>
@@ -10667,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>789</v>
       </c>
@@ -10682,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>791</v>
       </c>
@@ -10697,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>793</v>
       </c>
@@ -10712,7 +10714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>795</v>
       </c>
@@ -10727,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>797</v>
       </c>
@@ -10742,7 +10744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>799</v>
       </c>
@@ -10757,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>801</v>
       </c>
@@ -10772,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>801</v>
       </c>
@@ -10787,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>804</v>
       </c>
@@ -10802,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>806</v>
       </c>
@@ -10817,7 +10819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>808</v>
       </c>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>810</v>
       </c>
@@ -10847,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>812</v>
       </c>
@@ -10862,7 +10864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>814</v>
       </c>
@@ -10877,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>816</v>
       </c>
@@ -10892,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>818</v>
       </c>
@@ -10910,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>820</v>
       </c>
@@ -10925,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>822</v>
       </c>
@@ -10940,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>824</v>
       </c>
@@ -10955,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>826</v>
       </c>
@@ -10973,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>828</v>
       </c>
@@ -10988,7 +10990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>830</v>
       </c>
@@ -11003,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>832</v>
       </c>
@@ -11018,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>834</v>
       </c>
@@ -11033,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>836</v>
       </c>
@@ -11048,7 +11050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>838</v>
       </c>
@@ -11063,7 +11065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>840</v>
       </c>
@@ -11078,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>842</v>
       </c>
@@ -11093,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>844</v>
       </c>
@@ -11108,7 +11110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>846</v>
       </c>
@@ -11123,7 +11125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>848</v>
       </c>
@@ -11138,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>850</v>
       </c>
@@ -11153,7 +11155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>852</v>
       </c>
@@ -11168,7 +11170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>854</v>
       </c>
@@ -11183,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>856</v>
       </c>
@@ -11198,7 +11200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>858</v>
       </c>
@@ -11213,7 +11215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>860</v>
       </c>
@@ -11228,7 +11230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>862</v>
       </c>
@@ -11243,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>864</v>
       </c>
@@ -11258,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>866</v>
       </c>
@@ -11273,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>868</v>
       </c>
@@ -11288,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>870</v>
       </c>
@@ -11306,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>872</v>
       </c>
@@ -11321,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>874</v>
       </c>
@@ -11336,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>876</v>
       </c>
@@ -11351,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>878</v>
       </c>
@@ -11366,7 +11368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>880</v>
       </c>
@@ -11381,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>882</v>
       </c>
@@ -11396,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>884</v>
       </c>
@@ -11411,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>886</v>
       </c>
@@ -11426,7 +11428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>888</v>
       </c>
@@ -11441,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>890</v>
       </c>
@@ -11456,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>892</v>
       </c>
@@ -11471,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>894</v>
       </c>
@@ -11486,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>896</v>
       </c>
@@ -11501,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>898</v>
       </c>
@@ -11516,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>900</v>
       </c>
@@ -11534,7 +11536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>902</v>
       </c>
@@ -11549,7 +11551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>904</v>
       </c>
@@ -11564,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>906</v>
       </c>
@@ -11582,7 +11584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>908</v>
       </c>
@@ -11597,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>910</v>
       </c>
@@ -11612,7 +11614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>912</v>
       </c>
@@ -11627,7 +11629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>914</v>
       </c>
@@ -11642,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>916</v>
       </c>
@@ -11657,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>918</v>
       </c>
@@ -11672,7 +11674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>920</v>
       </c>
@@ -11687,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>922</v>
       </c>
@@ -11702,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>923</v>
       </c>
@@ -11720,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>925</v>
       </c>
@@ -11735,7 +11737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>927</v>
       </c>
@@ -11753,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>929</v>
       </c>
@@ -11768,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>931</v>
       </c>
@@ -11783,7 +11785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>933</v>
       </c>
@@ -11798,7 +11800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>935</v>
       </c>
@@ -11813,7 +11815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>937</v>
       </c>
@@ -11828,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>939</v>
       </c>
@@ -11843,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>941</v>
       </c>
@@ -11858,7 +11860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>943</v>
       </c>
@@ -11873,7 +11875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>945</v>
       </c>
@@ -11888,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>947</v>
       </c>
@@ -11903,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>949</v>
       </c>
@@ -11918,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>951</v>
       </c>
@@ -11933,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>953</v>
       </c>
@@ -11948,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>955</v>
       </c>
@@ -11963,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>957</v>
       </c>
@@ -11978,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>959</v>
       </c>
@@ -11993,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>961</v>
       </c>
@@ -12008,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>963</v>
       </c>
@@ -12026,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>965</v>
       </c>
@@ -12041,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>967</v>
       </c>
@@ -12056,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>969</v>
       </c>
@@ -12071,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>971</v>
       </c>
@@ -12086,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>973</v>
       </c>
@@ -12101,7 +12103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>975</v>
       </c>
@@ -12116,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>977</v>
       </c>
@@ -12131,7 +12133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>979</v>
       </c>
@@ -12146,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>981</v>
       </c>
@@ -12164,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>983</v>
       </c>
@@ -12182,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>985</v>
       </c>
@@ -12197,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>987</v>
       </c>
@@ -12212,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>989</v>
       </c>
@@ -12227,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>991</v>
       </c>
@@ -12245,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>993</v>
       </c>
@@ -12260,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>995</v>
       </c>
@@ -12278,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>997</v>
       </c>
@@ -12293,7 +12295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>999</v>
       </c>
@@ -12308,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>1001</v>
       </c>
@@ -12326,7 +12328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1003</v>
       </c>
@@ -12341,7 +12343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1005</v>
       </c>
@@ -12356,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1007</v>
       </c>
@@ -12371,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1009</v>
       </c>
@@ -12386,7 +12388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1011</v>
       </c>
@@ -12401,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1013</v>
       </c>
@@ -12416,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1015</v>
       </c>
@@ -12431,7 +12433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1017</v>
       </c>
@@ -12446,7 +12448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1019</v>
       </c>
@@ -12461,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1021</v>
       </c>
@@ -12476,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1023</v>
       </c>
@@ -12491,7 +12493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1025</v>
       </c>
@@ -12506,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1026</v>
       </c>
@@ -12521,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1028</v>
       </c>
@@ -12536,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1030</v>
       </c>
@@ -12551,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1032</v>
       </c>
@@ -12566,7 +12568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1034</v>
       </c>
@@ -12581,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1036</v>
       </c>
@@ -12596,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1038</v>
       </c>
@@ -12611,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1040</v>
       </c>
@@ -12626,7 +12628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1042</v>
       </c>
@@ -12641,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1044</v>
       </c>
@@ -12656,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1046</v>
       </c>
@@ -12671,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1047</v>
       </c>
@@ -12686,7 +12688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1049</v>
       </c>
@@ -12701,7 +12703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1051</v>
       </c>
@@ -12716,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1053</v>
       </c>
@@ -12734,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1055</v>
       </c>
@@ -12749,7 +12751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1057</v>
       </c>
@@ -12764,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1059</v>
       </c>
@@ -12779,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1061</v>
       </c>
@@ -12794,7 +12796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1063</v>
       </c>
@@ -12809,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1065</v>
       </c>
@@ -12824,7 +12826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1067</v>
       </c>
@@ -12839,7 +12841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1069</v>
       </c>
@@ -12854,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1071</v>
       </c>
@@ -12872,7 +12874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1073</v>
       </c>
@@ -12890,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1075</v>
       </c>
@@ -12905,7 +12907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1077</v>
       </c>
@@ -12920,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1079</v>
       </c>
@@ -12935,7 +12937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1081</v>
       </c>
@@ -12950,7 +12952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1083</v>
       </c>
@@ -12965,7 +12967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1085</v>
       </c>
@@ -12980,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1087</v>
       </c>
@@ -12998,7 +13000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1089</v>
       </c>
@@ -13013,7 +13015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1091</v>
       </c>
@@ -13028,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1093</v>
       </c>
@@ -13043,7 +13045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1095</v>
       </c>
@@ -13058,7 +13060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1097</v>
       </c>
@@ -13073,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1099</v>
       </c>
@@ -13088,7 +13090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1101</v>
       </c>
@@ -13103,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1103</v>
       </c>
@@ -13118,7 +13120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1105</v>
       </c>
@@ -13133,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1107</v>
       </c>
@@ -13148,7 +13150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1109</v>
       </c>
@@ -13163,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1111</v>
       </c>
@@ -13178,7 +13180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1113</v>
       </c>
@@ -13193,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1115</v>
       </c>
@@ -13208,7 +13210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1117</v>
       </c>
@@ -13223,7 +13225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1119</v>
       </c>
@@ -13238,7 +13240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1121</v>
       </c>
@@ -13253,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1123</v>
       </c>
@@ -13268,7 +13270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1125</v>
       </c>
@@ -13283,7 +13285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1127</v>
       </c>
@@ -13298,7 +13300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1129</v>
       </c>
@@ -13313,7 +13315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1131</v>
       </c>
@@ -13328,7 +13330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1133</v>
       </c>
@@ -13343,7 +13345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1135</v>
       </c>
@@ -13358,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1137</v>
       </c>
@@ -13373,7 +13375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1139</v>
       </c>
@@ -13388,7 +13390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1141</v>
       </c>
@@ -13403,7 +13405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1143</v>
       </c>
@@ -13421,7 +13423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1145</v>
       </c>
@@ -13436,7 +13438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1147</v>
       </c>
@@ -13451,7 +13453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1149</v>
       </c>
@@ -13466,7 +13468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1151</v>
       </c>
@@ -13481,7 +13483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1153</v>
       </c>
@@ -13496,7 +13498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1155</v>
       </c>
@@ -13511,7 +13513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1157</v>
       </c>
@@ -13526,7 +13528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1159</v>
       </c>
@@ -13541,7 +13543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1161</v>
       </c>
@@ -13556,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1163</v>
       </c>
@@ -13571,7 +13573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1165</v>
       </c>
@@ -13586,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1167</v>
       </c>
@@ -13601,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1169</v>
       </c>
@@ -13616,7 +13618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1171</v>
       </c>
@@ -13631,7 +13633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1173</v>
       </c>
@@ -13646,7 +13648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1175</v>
       </c>
@@ -13661,7 +13663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1177</v>
       </c>
@@ -13676,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1179</v>
       </c>
@@ -13691,7 +13693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1181</v>
       </c>
@@ -13709,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1183</v>
       </c>
@@ -13727,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1185</v>
       </c>
@@ -13742,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1187</v>
       </c>
@@ -13757,7 +13759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1189</v>
       </c>
@@ -13772,7 +13774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1191</v>
       </c>
@@ -13787,7 +13789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1193</v>
       </c>
@@ -13802,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1195</v>
       </c>
@@ -13817,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1197</v>
       </c>
@@ -13835,7 +13837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1199</v>
       </c>
@@ -13850,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1201</v>
       </c>
@@ -13865,7 +13867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1203</v>
       </c>
@@ -13880,7 +13882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1205</v>
       </c>
@@ -13895,7 +13897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1207</v>
       </c>
@@ -13913,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1209</v>
       </c>
@@ -13928,7 +13930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1211</v>
       </c>
@@ -13943,7 +13945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1213</v>
       </c>
@@ -13958,7 +13960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1215</v>
       </c>
@@ -13973,7 +13975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1217</v>
       </c>
@@ -13988,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1219</v>
       </c>
@@ -14003,7 +14005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1221</v>
       </c>
@@ -14018,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1223</v>
       </c>
@@ -14036,7 +14038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1225</v>
       </c>
@@ -14051,7 +14053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1227</v>
       </c>
@@ -14066,7 +14068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1229</v>
       </c>
@@ -14081,7 +14083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1231</v>
       </c>
@@ -14096,7 +14098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1233</v>
       </c>
@@ -14111,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1235</v>
       </c>
@@ -14126,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1237</v>
       </c>
@@ -14141,7 +14143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1239</v>
       </c>
@@ -14156,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1241</v>
       </c>
@@ -14171,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1243</v>
       </c>
@@ -14186,7 +14188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1245</v>
       </c>
@@ -14201,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1247</v>
       </c>
@@ -14216,7 +14218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1249</v>
       </c>
@@ -14231,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1251</v>
       </c>
@@ -14246,7 +14248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1253</v>
       </c>
@@ -14261,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1255</v>
       </c>
@@ -14276,7 +14278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1257</v>
       </c>
@@ -14291,7 +14293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1259</v>
       </c>
@@ -14306,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1261</v>
       </c>
@@ -14321,7 +14323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1263</v>
       </c>
@@ -14336,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1265</v>
       </c>
@@ -14351,7 +14353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1267</v>
       </c>
@@ -14366,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1269</v>
       </c>
@@ -14384,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1271</v>
       </c>
@@ -14399,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1273</v>
       </c>
@@ -14414,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1275</v>
       </c>
@@ -14429,7 +14431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1277</v>
       </c>
@@ -14444,7 +14446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1279</v>
       </c>
@@ -14459,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1281</v>
       </c>
@@ -14474,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1283</v>
       </c>
@@ -14489,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1285</v>
       </c>
@@ -14504,7 +14506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1287</v>
       </c>
@@ -14519,7 +14521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1289</v>
       </c>
@@ -14534,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1290</v>
       </c>
@@ -14549,7 +14551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1292</v>
       </c>
@@ -14564,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1294</v>
       </c>
@@ -14579,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1296</v>
       </c>
@@ -14594,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1298</v>
       </c>
@@ -14609,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1300</v>
       </c>
@@ -14624,7 +14626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1302</v>
       </c>
@@ -14639,7 +14641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1304</v>
       </c>
@@ -14657,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1306</v>
       </c>
@@ -14672,7 +14674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1308</v>
       </c>
@@ -14687,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1310</v>
       </c>
@@ -14702,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1312</v>
       </c>
@@ -14717,7 +14719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1314</v>
       </c>
@@ -14732,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1316</v>
       </c>
@@ -14747,7 +14749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1318</v>
       </c>
@@ -14762,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1320</v>
       </c>
@@ -14777,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1322</v>
       </c>
@@ -14792,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1324</v>
       </c>
@@ -14807,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1326</v>
       </c>
@@ -14822,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1328</v>
       </c>
@@ -14837,7 +14839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1328</v>
       </c>
@@ -14852,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1331</v>
       </c>
@@ -14870,7 +14872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1333</v>
       </c>
@@ -14885,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1335</v>
       </c>
@@ -14900,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1337</v>
       </c>
@@ -14915,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1339</v>
       </c>
@@ -14930,7 +14932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1341</v>
       </c>
@@ -14945,7 +14947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1343</v>
       </c>
@@ -14960,7 +14962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1345</v>
       </c>
@@ -14975,7 +14977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1347</v>
       </c>
@@ -14990,7 +14992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1349</v>
       </c>
@@ -15005,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1351</v>
       </c>
@@ -15020,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1353</v>
       </c>
@@ -15038,7 +15040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1355</v>
       </c>
@@ -15053,7 +15055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1357</v>
       </c>
@@ -15068,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1359</v>
       </c>
@@ -15083,7 +15085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1361</v>
       </c>
@@ -15101,7 +15103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1363</v>
       </c>
@@ -15116,7 +15118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1365</v>
       </c>
@@ -15131,7 +15133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1367</v>
       </c>
@@ -15146,7 +15148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1369</v>
       </c>
@@ -15161,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1371</v>
       </c>
@@ -15176,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1373</v>
       </c>
@@ -15195,18 +15197,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E693" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E693" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지9.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ACEC34-BCD1-49CE-8213-5E44495C7AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB61FA11-1A06-4AC5-8637-9EF54E70B0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="24686" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4542,7 +4542,7 @@
   <dimension ref="A1:F693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4582,7 +4582,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4597,11 +4596,10 @@
         <v>0.98547953367233276</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3">
@@ -4619,11 +4617,10 @@
         <v>1.3660214841365811E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4638,11 +4635,10 @@
         <v>1.4089495874941351E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4657,11 +4653,10 @@
         <v>0.98547953367233276</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
@@ -4679,11 +4674,10 @@
         <v>1.5964005142450329E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4698,11 +4692,10 @@
         <v>1.371278427541256E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4717,11 +4710,10 @@
         <v>1.446841284632683E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4736,11 +4728,10 @@
         <v>1.371553912758827E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4755,11 +4746,10 @@
         <v>1.3658003881573681E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4774,11 +4764,10 @@
         <v>0.98543292284011841</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12">
@@ -4796,11 +4785,10 @@
         <v>0.97009485960006714</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13">
@@ -4818,11 +4806,10 @@
         <v>1.384699530899525E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4837,11 +4824,10 @@
         <v>1.487633399665356E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4856,11 +4842,10 @@
         <v>0.98505765199661255</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -4878,11 +4863,10 @@
         <v>4.6868789941072457E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4897,11 +4881,10 @@
         <v>1.6510900110006329E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4916,11 +4899,10 @@
         <v>0.21747016906738281</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4935,11 +4917,10 @@
         <v>0.98535048961639404</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4954,11 +4935,10 @@
         <v>0.98545604944229126</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4973,11 +4953,10 @@
         <v>0.97440874576568604</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22">
@@ -4995,11 +4974,10 @@
         <v>0.98544943332672119</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23">
@@ -5017,11 +4995,10 @@
         <v>1.4247678220272061E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5036,11 +5013,10 @@
         <v>9.3375414609909058E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5055,11 +5031,10 @@
         <v>1.370231527835131E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5074,11 +5049,10 @@
         <v>1.397361606359482E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5093,11 +5067,10 @@
         <v>2.1056033670902249E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5112,11 +5085,10 @@
         <v>1.572469063103199E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5131,11 +5103,10 @@
         <v>2.8539406135678291E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5150,11 +5121,10 @@
         <v>1.378668658435345E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5169,11 +5139,10 @@
         <v>0.97934806346893311</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -5191,11 +5160,10 @@
         <v>7.1885824203491211E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5210,11 +5178,10 @@
         <v>8.8830806314945221E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5229,11 +5196,10 @@
         <v>1.366653107106686E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5248,11 +5214,10 @@
         <v>0.97227334976196289</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36">
@@ -5270,11 +5235,10 @@
         <v>1.4127772301435471E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5289,11 +5253,10 @@
         <v>2.0273488014936451E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5308,11 +5271,10 @@
         <v>1.670932583510876E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5327,11 +5289,10 @@
         <v>1.393033936619759E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5346,11 +5307,10 @@
         <v>0.98534727096557617</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F41">
@@ -5368,11 +5328,10 @@
         <v>0.3380604088306427</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5387,11 +5346,10 @@
         <v>1.3770449906587601E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5406,11 +5364,10 @@
         <v>0.98547548055648804</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44">
@@ -5428,11 +5385,10 @@
         <v>1.3818712905049321E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5447,11 +5403,10 @@
         <v>0.98515379428863525</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F46">
@@ -5469,11 +5424,10 @@
         <v>0.97444987297058105</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F47">
@@ -5491,11 +5445,10 @@
         <v>1.4165126718580719E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5510,11 +5463,10 @@
         <v>2.1214425563812259E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5529,11 +5481,10 @@
         <v>0.98547899723052979</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5548,11 +5499,10 @@
         <v>0.98542690277099609</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5567,11 +5517,10 @@
         <v>0.98542755842208862</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5586,11 +5535,10 @@
         <v>1.385481096804142E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5605,11 +5553,10 @@
         <v>1.3780238106846809E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5624,11 +5571,10 @@
         <v>0.98539125919342041</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F55">
@@ -5646,11 +5592,10 @@
         <v>1.3734043575823311E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5665,11 +5610,10 @@
         <v>1.5364873223006731E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5684,11 +5628,10 @@
         <v>0.91578459739685059</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F58">
@@ -5706,11 +5649,10 @@
         <v>1.3718074187636381E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5725,11 +5667,10 @@
         <v>0.17495463788509369</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5744,11 +5685,10 @@
         <v>1.4747391454875469E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5763,11 +5703,10 @@
         <v>0.98547756671905518</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F62">
@@ -5785,11 +5724,10 @@
         <v>1.5118575654923919E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5804,11 +5742,10 @@
         <v>0.21686895191669461</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5823,11 +5760,10 @@
         <v>1.362088695168495E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5842,11 +5778,10 @@
         <v>1.3790914788842199E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(ISBLANK(F66),D66,F66)</f>
         <v>0</v>
       </c>
     </row>
@@ -5861,11 +5796,10 @@
         <v>0.21736536920070651</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5880,11 +5814,10 @@
         <v>1.3606288470327851E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5899,11 +5832,10 @@
         <v>0.21754571795463559</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5918,11 +5850,10 @@
         <v>1.4114834368228911E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5937,11 +5868,10 @@
         <v>0.2174157649278641</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5956,11 +5886,10 @@
         <v>1.3751953840255741E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5975,11 +5904,10 @@
         <v>0.217308834195137</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5994,11 +5922,10 @@
         <v>1.3849782757461069E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6013,11 +5940,10 @@
         <v>0.88699156045913696</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F75">
@@ -6035,11 +5961,10 @@
         <v>2.4236127734184269E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6054,11 +5979,10 @@
         <v>0.97607225179672241</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F77">
@@ -6076,11 +6000,10 @@
         <v>3.2989460974931717E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6095,11 +6018,10 @@
         <v>3.1520873308181763E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6114,11 +6036,10 @@
         <v>1.392263174057007E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6133,11 +6054,10 @@
         <v>1.3713249005377289E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6152,11 +6072,10 @@
         <v>3.2550934702157967E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6171,11 +6090,10 @@
         <v>1.383442152291536E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6190,11 +6108,10 @@
         <v>1.364912372082472E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6209,11 +6126,10 @@
         <v>1.381893269717693E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6228,11 +6144,10 @@
         <v>1.371246855705976E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6247,11 +6162,10 @@
         <v>1.3905654661357399E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6266,11 +6180,10 @@
         <v>1.3734890148043631E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6285,11 +6198,10 @@
         <v>1.3909616507589821E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6304,11 +6216,10 @@
         <v>1.36702349409461E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6323,11 +6234,10 @@
         <v>1.3707149773836139E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6342,11 +6252,10 @@
         <v>1.7424669116735458E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6361,11 +6270,10 @@
         <v>1.360655669122934E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6380,11 +6288,10 @@
         <v>0.98306471109390259</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F94">
@@ -6402,11 +6309,10 @@
         <v>0.90861225128173828</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F95">
@@ -6424,11 +6330,10 @@
         <v>1.377684250473976E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6443,11 +6348,10 @@
         <v>1.3927857391536239E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6462,11 +6366,10 @@
         <v>3.4642335027456277E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6481,11 +6384,10 @@
         <v>1.371665392071009E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6500,11 +6402,10 @@
         <v>1.38880368322134E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6519,11 +6420,10 @@
         <v>1.5230646356940269E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6538,11 +6438,10 @@
         <v>1.355817634612322E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6557,11 +6456,10 @@
         <v>1.6548978164792061E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6576,11 +6474,10 @@
         <v>2.8174938634037971E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6595,11 +6492,10 @@
         <v>0.98539608716964722</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6614,11 +6510,10 @@
         <v>1.3631396926939489E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6633,11 +6528,10 @@
         <v>1.8586790189146999E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6652,11 +6546,10 @@
         <v>1.387540623545647E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6671,11 +6564,10 @@
         <v>0.98398429155349731</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F109">
@@ -6693,11 +6585,10 @@
         <v>0.98398429155349731</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F110">
@@ -6715,11 +6606,10 @@
         <v>0.98398429155349731</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F111">
@@ -6737,11 +6627,10 @@
         <v>1.6135400161147121E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6756,11 +6645,10 @@
         <v>1.39223700389266E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6775,11 +6663,10 @@
         <v>1.6432037577033039E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6794,11 +6681,10 @@
         <v>1.365429162979126E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6813,11 +6699,10 @@
         <v>1.4920325018465521E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6832,11 +6717,10 @@
         <v>1.418204326182604E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6851,11 +6735,10 @@
         <v>1.3604706153273581E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6870,11 +6753,10 @@
         <v>1.362086739391088E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6889,11 +6771,10 @@
         <v>1.3687526807188989E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6908,11 +6789,10 @@
         <v>1.432636007666588E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6927,11 +6807,10 @@
         <v>1.396811753511429E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6946,11 +6825,10 @@
         <v>1.357078365981579E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6965,11 +6843,10 @@
         <v>0.21747264266014099</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6984,11 +6861,10 @@
         <v>1.3584430329501631E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7003,11 +6879,10 @@
         <v>0.65858471393585205</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F126">
@@ -7025,11 +6900,10 @@
         <v>1.772293820977211E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7044,11 +6918,10 @@
         <v>1.357422396540642E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7063,11 +6936,10 @@
         <v>1.3793534599244589E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7082,11 +6954,10 @@
         <v>2.5655575096607212E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(ISBLANK(F130),D130,F130)</f>
         <v>0</v>
       </c>
     </row>
@@ -7101,11 +6972,10 @@
         <v>1.4368356205523011E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7120,11 +6990,10 @@
         <v>0.98546940088272095</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7139,11 +7008,10 @@
         <v>0.9852176308631897</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7158,11 +7026,10 @@
         <v>0.98527616262435913</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7177,11 +7044,10 @@
         <v>1.530971191823483E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7196,11 +7062,10 @@
         <v>1.386280730366707E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7215,11 +7080,10 @@
         <v>1.372019108384848E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7234,11 +7098,10 @@
         <v>1.382851507514715E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7253,11 +7116,10 @@
         <v>1.569250971078873E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7272,11 +7134,10 @@
         <v>1.383740082383156E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7291,11 +7152,10 @@
         <v>0.97511059045791626</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F141">
@@ -7313,11 +7173,10 @@
         <v>1.3767320662736889E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7332,11 +7191,10 @@
         <v>0.98523914813995361</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7351,11 +7209,10 @@
         <v>1.7239166423678402E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7370,11 +7227,10 @@
         <v>1.420906186103821E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7389,11 +7245,10 @@
         <v>1.3670967891812319E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7408,11 +7263,10 @@
         <v>1.4275276102125639E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7427,11 +7281,10 @@
         <v>0.98491621017456055</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F148">
@@ -7449,11 +7302,10 @@
         <v>1.7521817237138752E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7468,11 +7320,10 @@
         <v>1.467197947204113E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7487,11 +7338,10 @@
         <v>2.4496877565979961E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7506,11 +7356,10 @@
         <v>1.3959581963717939E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7525,11 +7374,10 @@
         <v>0.97728002071380615</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F153">
@@ -7547,11 +7395,10 @@
         <v>0.2174605876207352</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7566,11 +7413,10 @@
         <v>1.3674202375113961E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7585,11 +7431,10 @@
         <v>2.2773481905460361E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7604,11 +7449,10 @@
         <v>1.356075331568718E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7623,11 +7467,10 @@
         <v>2.1131280809640881E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7642,11 +7485,10 @@
         <v>0.97744327783584595</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F159">
@@ -7664,11 +7506,10 @@
         <v>4.2963441461324692E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7683,11 +7524,10 @@
         <v>1.3771103695034981E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7702,11 +7542,10 @@
         <v>0.19982752203941351</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7721,11 +7560,10 @@
         <v>0.21741180121898651</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7740,11 +7578,10 @@
         <v>1.4294573105871679E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7759,11 +7596,10 @@
         <v>1.37203186750412E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7778,11 +7614,10 @@
         <v>0.92870604991912842</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F166">
@@ -7800,11 +7635,10 @@
         <v>1.371616497635841E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7819,11 +7653,10 @@
         <v>1.761758886277676E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7838,11 +7671,10 @@
         <v>1.379162911325693E-2</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7857,11 +7689,10 @@
         <v>0.71942514181137085</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F170">
@@ -7879,11 +7710,10 @@
         <v>1.44998449832201E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7898,11 +7728,10 @@
         <v>0.22128936648368841</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7917,11 +7746,10 @@
         <v>0.3696269690990448</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7936,11 +7764,10 @@
         <v>1.3652872294187549E-2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7955,11 +7782,10 @@
         <v>1.378523465245962E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7974,11 +7800,10 @@
         <v>0.9853978157043457</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7993,11 +7818,10 @@
         <v>0.17069506645202639</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8012,11 +7836,10 @@
         <v>0.98497992753982544</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F178">
@@ -8034,11 +7857,10 @@
         <v>1.6819709911942479E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8053,11 +7875,10 @@
         <v>5.7164851576089859E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8072,11 +7893,10 @@
         <v>9.8531454801559448E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8091,11 +7911,10 @@
         <v>1.4239597134292129E-2</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8110,11 +7929,10 @@
         <v>0.98284608125686646</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F183">
@@ -8132,11 +7950,10 @@
         <v>1.3969838619232179E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8151,11 +7968,10 @@
         <v>0.98450827598571777</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F185">
@@ -8173,11 +7989,10 @@
         <v>0.98509871959686279</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F186">
@@ -8195,11 +8010,10 @@
         <v>2.662836387753487E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8214,11 +8028,10 @@
         <v>1.4779095537960529E-2</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8233,11 +8046,10 @@
         <v>1.3816907070577139E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8252,11 +8064,10 @@
         <v>0.21744512021541601</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8271,11 +8082,10 @@
         <v>1.3667174614965919E-2</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8290,11 +8100,10 @@
         <v>1.414022408425808E-2</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8309,11 +8118,10 @@
         <v>1.48854972794652E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8328,11 +8136,10 @@
         <v>1.755982264876366E-2</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(ISBLANK(F194),D194,F194)</f>
         <v>0</v>
       </c>
     </row>
@@ -8347,11 +8154,10 @@
         <v>1.5888264402747151E-2</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8366,11 +8172,10 @@
         <v>1.378810033202171E-2</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8385,11 +8190,10 @@
         <v>0.1040386110544205</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8404,11 +8208,10 @@
         <v>1.3761023059487339E-2</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8423,11 +8226,10 @@
         <v>1.3744828291237351E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8442,11 +8244,10 @@
         <v>6.7840300500392914E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8461,11 +8262,10 @@
         <v>4.4333972036838531E-2</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8480,11 +8280,10 @@
         <v>2.5849997997283939E-2</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8499,11 +8298,10 @@
         <v>0.92271733283996582</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F203">
@@ -8521,11 +8319,10 @@
         <v>0.98500800132751465</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F204">
@@ -8543,11 +8340,10 @@
         <v>0.98532760143280029</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F205">
@@ -8565,11 +8361,10 @@
         <v>0.98108875751495361</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F206">
@@ -8587,11 +8382,10 @@
         <v>0.2173984497785568</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8606,11 +8400,10 @@
         <v>0.98547154664993286</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F208">
@@ -8628,11 +8421,10 @@
         <v>1.3951661996543409E-2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8647,11 +8439,10 @@
         <v>0.97924655675888062</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8666,11 +8457,10 @@
         <v>1.378641556948423E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8685,11 +8475,10 @@
         <v>1.375033613294363E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8704,11 +8493,10 @@
         <v>1.434088498353958E-2</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8723,11 +8511,10 @@
         <v>1.385239325463772E-2</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8742,11 +8529,10 @@
         <v>0.86895173788070679</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F215">
@@ -8764,11 +8550,10 @@
         <v>3.1451467424631119E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8783,11 +8568,10 @@
         <v>2.264768444001675E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8802,11 +8586,10 @@
         <v>1.599632203578949E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8821,11 +8604,10 @@
         <v>0.2170112282037735</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8840,11 +8622,10 @@
         <v>1.3979103416204451E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8859,11 +8640,10 @@
         <v>0.92356336116790771</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8878,11 +8658,10 @@
         <v>1.3916401192545891E-2</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8897,11 +8676,10 @@
         <v>1.378051564097404E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8916,11 +8694,10 @@
         <v>1.3674420304596421E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8935,11 +8712,10 @@
         <v>1.3683825731277469E-2</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8954,11 +8730,10 @@
         <v>1.4007629826664919E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8973,11 +8748,10 @@
         <v>1.3690848834812639E-2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8992,11 +8766,10 @@
         <v>0.2045881599187851</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9011,11 +8784,10 @@
         <v>0.98547261953353882</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F229">
@@ -9033,11 +8805,10 @@
         <v>0.98540544509887695</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F230">
@@ -9055,11 +8826,10 @@
         <v>1.3574492186307911E-2</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9074,11 +8844,10 @@
         <v>1.5069711953401571E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9093,11 +8862,10 @@
         <v>1.3764778152108191E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9112,11 +8880,10 @@
         <v>1.3639478012919429E-2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9131,11 +8898,10 @@
         <v>1.362675707787275E-2</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9150,11 +8916,10 @@
         <v>1.3668421655893329E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9169,11 +8934,10 @@
         <v>2.977843768894672E-2</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9188,11 +8952,10 @@
         <v>1.41918733716011E-2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9207,11 +8970,10 @@
         <v>1.4360214583575731E-2</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9226,11 +8988,10 @@
         <v>1.757805235683918E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9245,11 +9006,10 @@
         <v>1.3636411167681221E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9264,11 +9024,10 @@
         <v>1.429734844714403E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9283,11 +9042,10 @@
         <v>4.4201560318470001E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9302,11 +9060,10 @@
         <v>1.4281538315117359E-2</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9321,11 +9078,10 @@
         <v>1.3858604244887831E-2</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9340,11 +9096,10 @@
         <v>1.4271075837314131E-2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9359,11 +9114,10 @@
         <v>1.37238884344697E-2</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9378,11 +9132,10 @@
         <v>3.40251624584198E-2</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9397,11 +9150,10 @@
         <v>1.3810832984745501E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9416,11 +9168,10 @@
         <v>1.4772584661841391E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9435,11 +9186,10 @@
         <v>0.98546278476715088</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9454,11 +9204,10 @@
         <v>1.4207678847014901E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9473,11 +9222,10 @@
         <v>1.367438212037086E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9492,11 +9240,10 @@
         <v>1.7447903752326969E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9511,11 +9258,10 @@
         <v>8.3357229828834534E-2</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9530,11 +9276,10 @@
         <v>1.424162555485964E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9549,11 +9294,10 @@
         <v>0.9854239821434021</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9568,11 +9312,10 @@
         <v>2.7484992519021031E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(ISBLANK(F258),D258,F258)</f>
         <v>0</v>
       </c>
     </row>
@@ -9587,11 +9330,10 @@
         <v>0.21792630851268771</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="9">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9606,11 +9348,10 @@
         <v>1.367941219359636E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9625,11 +9366,10 @@
         <v>0.98545920848846436</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9644,11 +9384,10 @@
         <v>2.9365325346589088E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9663,11 +9402,10 @@
         <v>2.5857375934720039E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9682,11 +9420,10 @@
         <v>1.4893072657287121E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9701,11 +9438,10 @@
         <v>1.372981444001198E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9720,11 +9456,10 @@
         <v>0.97560209035873413</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F266">
@@ -9742,11 +9477,10 @@
         <v>0.98548132181167603</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9761,11 +9495,10 @@
         <v>0.98547691106796265</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9780,11 +9513,10 @@
         <v>0.98547226190567017</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9799,11 +9531,10 @@
         <v>1.3611504808068281E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9818,11 +9549,10 @@
         <v>0.90101498365402222</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9837,11 +9567,10 @@
         <v>1.572357676923275E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9856,11 +9585,10 @@
         <v>0.98544377088546753</v>
       </c>
       <c r="D273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9875,11 +9603,10 @@
         <v>1.389481034129858E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9894,11 +9621,10 @@
         <v>3.1652867794036872E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9913,11 +9639,10 @@
         <v>2.5788012892007831E-2</v>
       </c>
       <c r="D276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9932,11 +9657,10 @@
         <v>1.40032647177577E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9951,11 +9675,10 @@
         <v>1.5146780759096151E-2</v>
       </c>
       <c r="D278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9970,11 +9693,10 @@
         <v>1.5878887847065929E-2</v>
       </c>
       <c r="D279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9989,11 +9711,10 @@
         <v>1.402951125055552E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10008,11 +9729,10 @@
         <v>0.98547756671905518</v>
       </c>
       <c r="D281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F281">
@@ -10030,11 +9750,10 @@
         <v>1.4010271057486531E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10049,11 +9768,10 @@
         <v>1.4768483117222789E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10068,11 +9786,10 @@
         <v>1.427124999463558E-2</v>
       </c>
       <c r="D284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10087,11 +9804,10 @@
         <v>0.97895687818527222</v>
       </c>
       <c r="D285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F285">
@@ -10109,11 +9825,10 @@
         <v>1.3755581341683859E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10128,11 +9843,10 @@
         <v>1.429380755871534E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10147,11 +9861,10 @@
         <v>1.384461857378483E-2</v>
       </c>
       <c r="D288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10166,11 +9879,10 @@
         <v>1.428684778511524E-2</v>
       </c>
       <c r="D289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10185,11 +9897,10 @@
         <v>2.6035051792860031E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10204,11 +9915,10 @@
         <v>2.9530057683587071E-2</v>
       </c>
       <c r="D291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10223,11 +9933,10 @@
         <v>1.4604274183511731E-2</v>
       </c>
       <c r="D292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10242,11 +9951,10 @@
         <v>0.98531728982925415</v>
       </c>
       <c r="D293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F293">
@@ -10264,11 +9972,10 @@
         <v>1.496615167707205E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10283,11 +9990,10 @@
         <v>0.98493111133575439</v>
       </c>
       <c r="D295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F295">
@@ -10305,11 +10011,10 @@
         <v>0.9851042628288269</v>
       </c>
       <c r="D296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F296">
@@ -10327,11 +10032,10 @@
         <v>3.2855253666639328E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10346,11 +10050,10 @@
         <v>1.7857752740383152E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10365,11 +10068,10 @@
         <v>3.40251624584198E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10384,11 +10086,10 @@
         <v>2.5299780070781711E-2</v>
       </c>
       <c r="D300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10403,11 +10104,10 @@
         <v>1.4092085883021349E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10422,11 +10122,10 @@
         <v>1.3960409909486771E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10441,11 +10140,10 @@
         <v>1.8270675092935559E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10460,11 +10158,10 @@
         <v>2.7493337169289589E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10479,11 +10176,10 @@
         <v>2.863391675055027E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10498,11 +10194,10 @@
         <v>1.3847861438989639E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10517,11 +10212,10 @@
         <v>1.4026854187250141E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10536,11 +10230,10 @@
         <v>1.368437986820936E-2</v>
       </c>
       <c r="D308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10555,11 +10248,10 @@
         <v>1.3909099623560911E-2</v>
       </c>
       <c r="D309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10574,11 +10266,10 @@
         <v>1.445955596864223E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10593,11 +10284,10 @@
         <v>3.7826716899871833E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10612,11 +10302,10 @@
         <v>0.98541080951690674</v>
       </c>
       <c r="D312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10631,11 +10320,10 @@
         <v>0.98548156023025513</v>
       </c>
       <c r="D313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10650,11 +10338,10 @@
         <v>0.97542273998260498</v>
       </c>
       <c r="D314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10669,11 +10356,10 @@
         <v>1.6800519078969959E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10688,11 +10374,10 @@
         <v>0.70101189613342285</v>
       </c>
       <c r="D316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F316">
@@ -10710,11 +10395,10 @@
         <v>2.009301446378231E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10729,11 +10413,10 @@
         <v>0.98548370599746704</v>
       </c>
       <c r="D318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10748,11 +10431,10 @@
         <v>0.98545271158218384</v>
       </c>
       <c r="D319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F319">
@@ -10770,11 +10452,10 @@
         <v>1.4250329695641989E-2</v>
       </c>
       <c r="D320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10789,11 +10470,10 @@
         <v>1.4624064788222309E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10808,11 +10488,10 @@
         <v>0.98547112941741943</v>
       </c>
       <c r="D322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(ISBLANK(F322),D322,F322)</f>
         <v>1</v>
       </c>
     </row>
@@ -10827,11 +10506,10 @@
         <v>1.399492472410202E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="11">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10846,11 +10524,10 @@
         <v>1.4200480654835699E-2</v>
       </c>
       <c r="D324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10865,11 +10542,10 @@
         <v>1.3765786774456499E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10884,11 +10560,10 @@
         <v>1.386919710785151E-2</v>
       </c>
       <c r="D326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10903,11 +10578,10 @@
         <v>1.405599992722273E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10922,11 +10596,10 @@
         <v>0.98547422885894775</v>
       </c>
       <c r="D328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10941,11 +10614,10 @@
         <v>0.98547214269638062</v>
       </c>
       <c r="D329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10960,11 +10632,10 @@
         <v>4.2360380291938782E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10979,11 +10650,10 @@
         <v>1.8764965236186981E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10998,11 +10668,10 @@
         <v>0.98423624038696289</v>
       </c>
       <c r="D332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F332">
@@ -11020,11 +10689,10 @@
         <v>1.362271886318922E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11039,11 +10707,10 @@
         <v>0.87581664323806763</v>
       </c>
       <c r="D334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F334">
@@ -11061,11 +10728,10 @@
         <v>0.21845187246799469</v>
       </c>
       <c r="D335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11080,11 +10746,10 @@
         <v>0.98538720607757568</v>
       </c>
       <c r="D336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11099,11 +10764,10 @@
         <v>3.0985163524746891E-2</v>
       </c>
       <c r="D337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11118,11 +10782,10 @@
         <v>1.470872573554516E-2</v>
       </c>
       <c r="D338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11137,11 +10800,10 @@
         <v>1.436716318130493E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11156,11 +10818,10 @@
         <v>1.435944531112909E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11175,11 +10836,10 @@
         <v>0.21754531562328339</v>
       </c>
       <c r="D341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11194,11 +10854,10 @@
         <v>2.6252863928675652E-2</v>
       </c>
       <c r="D342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11213,11 +10872,10 @@
         <v>1.614967547357082E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11232,11 +10890,10 @@
         <v>1.429598405957222E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11251,11 +10908,10 @@
         <v>0.98547911643981934</v>
       </c>
       <c r="D345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11270,11 +10926,10 @@
         <v>0.98547470569610596</v>
       </c>
       <c r="D346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11289,11 +10944,10 @@
         <v>0.98547899723052979</v>
       </c>
       <c r="D347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11308,11 +10962,10 @@
         <v>0.98548012971878052</v>
       </c>
       <c r="D348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11327,11 +10980,10 @@
         <v>1.4722824096679689E-2</v>
       </c>
       <c r="D349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11346,11 +10998,10 @@
         <v>0.98530733585357666</v>
       </c>
       <c r="D350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11365,11 +11016,10 @@
         <v>0.25547462701797491</v>
       </c>
       <c r="D351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11384,11 +11034,10 @@
         <v>1.364588737487793E-2</v>
       </c>
       <c r="D352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11403,11 +11052,10 @@
         <v>1.379914022982121E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11422,11 +11070,10 @@
         <v>1.370925176888704E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11441,11 +11088,10 @@
         <v>0.7680361270904541</v>
       </c>
       <c r="D355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F355">
@@ -11463,11 +11109,10 @@
         <v>1.370925176888704E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11482,11 +11127,10 @@
         <v>1.4519489370286459E-2</v>
       </c>
       <c r="D357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11501,11 +11145,10 @@
         <v>1.399327348917723E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11520,11 +11163,10 @@
         <v>1.6003115102648739E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11539,11 +11181,10 @@
         <v>0.98526298999786377</v>
       </c>
       <c r="D360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11558,11 +11199,10 @@
         <v>1.41363088041544E-2</v>
       </c>
       <c r="D361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11577,11 +11217,10 @@
         <v>1.3671352528035641E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11596,11 +11235,10 @@
         <v>1.3781202957034109E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11615,11 +11253,10 @@
         <v>1.7418051138520241E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11634,11 +11271,10 @@
         <v>1.38156320899725E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11653,11 +11289,10 @@
         <v>1.402808632701635E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11672,11 +11307,10 @@
         <v>0.98533844947814941</v>
       </c>
       <c r="D367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11691,11 +11325,10 @@
         <v>1.3696812093257901E-2</v>
       </c>
       <c r="D368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11710,11 +11343,10 @@
         <v>1.9422300159931179E-2</v>
       </c>
       <c r="D369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11729,11 +11361,10 @@
         <v>1.432900130748749E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11748,11 +11379,10 @@
         <v>1.9756557419896129E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11767,11 +11397,10 @@
         <v>1.3811221346259121E-2</v>
       </c>
       <c r="D372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11786,11 +11415,10 @@
         <v>3.3785387873649597E-2</v>
       </c>
       <c r="D373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11805,11 +11433,10 @@
         <v>1.43402386456728E-2</v>
       </c>
       <c r="D374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11824,11 +11451,10 @@
         <v>1.4470322988927359E-2</v>
       </c>
       <c r="D375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11843,11 +11469,10 @@
         <v>1.4696969650685791E-2</v>
       </c>
       <c r="D376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11862,11 +11487,10 @@
         <v>1.4349225908517839E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11881,11 +11505,10 @@
         <v>0.98547804355621338</v>
       </c>
       <c r="D378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11900,11 +11523,10 @@
         <v>1.4470322988927359E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11919,11 +11541,10 @@
         <v>0.98507660627365112</v>
       </c>
       <c r="D380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11938,11 +11559,10 @@
         <v>0.2176112234592438</v>
       </c>
       <c r="D381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11957,11 +11577,10 @@
         <v>1.369262672960758E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11976,11 +11595,10 @@
         <v>1.381508074700832E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11995,11 +11613,10 @@
         <v>1.384624652564526E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12014,11 +11631,10 @@
         <v>1.4891058206558229E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12033,11 +11649,10 @@
         <v>0.62601470947265625</v>
       </c>
       <c r="D386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="12">IF(ISBLANK(F386),D386,F386)</f>
         <v>0</v>
       </c>
       <c r="F386">
@@ -12055,11 +11670,10 @@
         <v>0.80255967378616333</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="13">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12074,11 +11688,10 @@
         <v>4.3433364480733871E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12093,11 +11706,10 @@
         <v>5.5745784193277359E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12112,11 +11724,10 @@
         <v>1.4996811747550959E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12131,11 +11742,10 @@
         <v>5.5935222655534737E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12150,11 +11760,10 @@
         <v>1.47623373195529E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12169,11 +11778,10 @@
         <v>0.98547583818435669</v>
       </c>
       <c r="D393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12188,11 +11796,10 @@
         <v>1.407834514975548E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12207,11 +11814,10 @@
         <v>1.550253387540579E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12226,11 +11832,10 @@
         <v>1.7082531005144119E-2</v>
       </c>
       <c r="D396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12245,11 +11850,10 @@
         <v>1.373138371855021E-2</v>
       </c>
       <c r="D397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12264,11 +11868,10 @@
         <v>0.98523837327957153</v>
       </c>
       <c r="D398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12283,11 +11886,10 @@
         <v>0.2175210565328598</v>
       </c>
       <c r="D399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12302,11 +11904,10 @@
         <v>1.366306655108929E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12321,11 +11922,10 @@
         <v>1.984372548758984E-2</v>
       </c>
       <c r="D401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12340,11 +11940,10 @@
         <v>0.97614550590515137</v>
       </c>
       <c r="D402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12359,11 +11958,10 @@
         <v>0.98400163650512695</v>
       </c>
       <c r="D403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12378,11 +11976,10 @@
         <v>1.5688622370362278E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12397,11 +11994,10 @@
         <v>0.2186428755521774</v>
       </c>
       <c r="D405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12416,11 +12012,10 @@
         <v>1.399751752614975E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12435,11 +12030,10 @@
         <v>0.9781913161277771</v>
       </c>
       <c r="D407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12454,11 +12048,10 @@
         <v>1.805716939270496E-2</v>
       </c>
       <c r="D408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12473,11 +12066,10 @@
         <v>2.2934135049581531E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12492,11 +12084,10 @@
         <v>1.3838201761245729E-2</v>
       </c>
       <c r="D410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12511,11 +12102,10 @@
         <v>0.82095128297805786</v>
       </c>
       <c r="D411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12530,11 +12120,10 @@
         <v>1.5734909102320671E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12549,11 +12138,10 @@
         <v>0.66703104972839355</v>
       </c>
       <c r="D413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F413">
@@ -12571,11 +12159,10 @@
         <v>0.98546731472015381</v>
       </c>
       <c r="D414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12590,11 +12177,10 @@
         <v>4.1315283626317978E-2</v>
       </c>
       <c r="D415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12609,11 +12195,10 @@
         <v>1.4147139154374599E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12628,11 +12213,10 @@
         <v>0.98489481210708618</v>
       </c>
       <c r="D417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F417">
@@ -12650,11 +12234,10 @@
         <v>0.98547202348709106</v>
       </c>
       <c r="D418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12669,11 +12252,10 @@
         <v>0.98516649007797241</v>
       </c>
       <c r="D419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12688,11 +12270,10 @@
         <v>1.4474573545157909E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12707,11 +12288,10 @@
         <v>1.4406736940145491E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12726,11 +12306,10 @@
         <v>0.98546856641769409</v>
       </c>
       <c r="D422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12745,11 +12324,10 @@
         <v>0.98545581102371216</v>
       </c>
       <c r="D423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12764,11 +12342,10 @@
         <v>5.2548259496688843E-2</v>
       </c>
       <c r="D424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12783,11 +12360,10 @@
         <v>1.367182191461325E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12802,11 +12378,10 @@
         <v>7.9475432634353638E-2</v>
       </c>
       <c r="D426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12821,11 +12396,10 @@
         <v>0.98498338460922241</v>
       </c>
       <c r="D427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12840,11 +12414,10 @@
         <v>0.92036348581314087</v>
       </c>
       <c r="D428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12859,11 +12432,10 @@
         <v>0.50543594360351563</v>
       </c>
       <c r="D429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12878,11 +12450,10 @@
         <v>2.2433554753661159E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12897,11 +12468,10 @@
         <v>1.3788502663373951E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12916,11 +12486,10 @@
         <v>1.58194899559021E-2</v>
       </c>
       <c r="D432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12935,11 +12504,10 @@
         <v>0.98548173904418945</v>
       </c>
       <c r="D433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12954,11 +12522,10 @@
         <v>1.5138469636440281E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12973,11 +12540,10 @@
         <v>1.4013446867465969E-2</v>
       </c>
       <c r="D435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12992,11 +12558,10 @@
         <v>1.376562472432852E-2</v>
       </c>
       <c r="D436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13011,11 +12576,10 @@
         <v>1.468612439930439E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13030,11 +12594,10 @@
         <v>1.390095986425877E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13049,11 +12612,10 @@
         <v>0.98442643880844116</v>
       </c>
       <c r="D439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F439">
@@ -13071,11 +12633,10 @@
         <v>1.457036007195711E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13090,11 +12651,10 @@
         <v>1.383685506880283E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13109,11 +12669,10 @@
         <v>1.4341398142278189E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13128,11 +12687,10 @@
         <v>1.3841318897902971E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13147,11 +12705,10 @@
         <v>1.3772294856607911E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13166,11 +12723,10 @@
         <v>1.384628005325794E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13185,11 +12741,10 @@
         <v>1.371126901358366E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13204,11 +12759,10 @@
         <v>1.4337144792079931E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13223,11 +12777,10 @@
         <v>1.501009427011013E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13242,11 +12795,10 @@
         <v>1.394549105316401E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13261,11 +12813,10 @@
         <v>1.6750255599617962E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="14">IF(ISBLANK(F450),D450,F450)</f>
         <v>0</v>
       </c>
     </row>
@@ -13280,11 +12831,10 @@
         <v>1.4162548817694191E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="15">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13299,11 +12849,10 @@
         <v>1.4053137972950941E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13318,11 +12867,10 @@
         <v>1.365985441952944E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13337,11 +12885,10 @@
         <v>0.98503440618515015</v>
       </c>
       <c r="D454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E454">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F454">
@@ -13359,11 +12906,10 @@
         <v>1.384252309799194E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13378,11 +12924,10 @@
         <v>5.3351528942584991E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13397,11 +12942,10 @@
         <v>0.98526346683502197</v>
       </c>
       <c r="D457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E457">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F457">
@@ -13419,11 +12963,10 @@
         <v>1.4173786155879499E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13438,11 +12981,10 @@
         <v>0.98548328876495361</v>
       </c>
       <c r="D459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E459">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13457,11 +12999,10 @@
         <v>0.98520606756210327</v>
       </c>
       <c r="D460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E460">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13476,11 +13017,10 @@
         <v>1.416381448507309E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13495,11 +13035,10 @@
         <v>6.0130830854177468E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13514,11 +13053,10 @@
         <v>1.363221742212772E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13533,11 +13071,10 @@
         <v>4.7953411936759949E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13552,11 +13089,10 @@
         <v>2.5849997997283939E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13571,11 +13107,10 @@
         <v>0.98180204629898071</v>
       </c>
       <c r="D466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E466">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F466">
@@ -13593,11 +13128,10 @@
         <v>0.98435389995574951</v>
       </c>
       <c r="D467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E467">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13612,11 +13146,10 @@
         <v>0.97221821546554565</v>
       </c>
       <c r="D468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E468">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F468">
@@ -13634,11 +13167,10 @@
         <v>2.2446576505899429E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13653,11 +13185,10 @@
         <v>0.9853743314743042</v>
       </c>
       <c r="D470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E470">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13672,11 +13203,10 @@
         <v>0.97636163234710693</v>
       </c>
       <c r="D471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E471">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13691,11 +13221,10 @@
         <v>0.98548221588134766</v>
       </c>
       <c r="D472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E472">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13710,11 +13239,10 @@
         <v>2.9873494058847431E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13729,11 +13257,10 @@
         <v>0.98547989130020142</v>
       </c>
       <c r="D474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E474">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13748,11 +13275,10 @@
         <v>1.6877425834536549E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13767,11 +13293,10 @@
         <v>0.93123358488082886</v>
       </c>
       <c r="D476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E476">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13786,11 +13311,10 @@
         <v>1.539767999202013E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13805,11 +13329,10 @@
         <v>1.501409895718098E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13824,11 +13347,10 @@
         <v>1.438781805336475E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13843,11 +13365,10 @@
         <v>1.428204029798508E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13862,11 +13383,10 @@
         <v>3.1290590763092041E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13881,11 +13401,10 @@
         <v>1.4347599819302561E-2</v>
       </c>
       <c r="D482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E482">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13900,11 +13419,10 @@
         <v>1.8744781613349911E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13919,11 +13437,10 @@
         <v>1.412789802998304E-2</v>
       </c>
       <c r="D484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13938,11 +13455,10 @@
         <v>1.433267816901207E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13957,11 +13473,10 @@
         <v>0.98547756671905518</v>
       </c>
       <c r="D486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E486">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F486">
@@ -13979,11 +13494,10 @@
         <v>1.3709127902984619E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13998,11 +13512,10 @@
         <v>0.98537826538085938</v>
       </c>
       <c r="D488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E488">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14017,11 +13530,10 @@
         <v>1.400162559002638E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14036,11 +13548,10 @@
         <v>1.6711041331291199E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14055,11 +13566,10 @@
         <v>2.7282848954200741E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14074,11 +13584,10 @@
         <v>1.42675219103694E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14093,11 +13602,10 @@
         <v>2.356820926070213E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14112,11 +13620,10 @@
         <v>1.3670286163687709E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14131,11 +13638,10 @@
         <v>0.9722827672958374</v>
       </c>
       <c r="D495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E495">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F495">
@@ -14153,11 +13659,10 @@
         <v>0.88818264007568359</v>
       </c>
       <c r="D496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E496">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F496">
@@ -14175,11 +13680,10 @@
         <v>1.3936229050159449E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14194,11 +13698,10 @@
         <v>1.3671231456100941E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14213,11 +13716,10 @@
         <v>4.1915424168109887E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14232,11 +13734,10 @@
         <v>0.98206043243408203</v>
       </c>
       <c r="D500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E500">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F500">
@@ -14254,11 +13755,10 @@
         <v>1.3619566336274151E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14273,11 +13773,10 @@
         <v>0.98544389009475708</v>
       </c>
       <c r="D502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E502">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F502">
@@ -14295,11 +13794,10 @@
         <v>1.5175061300396919E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14314,11 +13812,10 @@
         <v>0.21744196116924289</v>
       </c>
       <c r="D504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14333,11 +13830,10 @@
         <v>0.98526716232299805</v>
       </c>
       <c r="D505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E505">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F505">
@@ -14355,11 +13851,10 @@
         <v>1.8099592998623851E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14374,11 +13869,10 @@
         <v>1.363382115960121E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14393,11 +13887,10 @@
         <v>1.5346314758062359E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14412,11 +13905,10 @@
         <v>1.447945274412632E-2</v>
       </c>
       <c r="D509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14431,11 +13923,10 @@
         <v>1.3742851093411451E-2</v>
       </c>
       <c r="D510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14450,11 +13941,10 @@
         <v>1.363340485841036E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14469,11 +13959,10 @@
         <v>1.50121608749032E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14488,11 +13977,10 @@
         <v>1.357020158320665E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14507,11 +13995,10 @@
         <v>1.386656984686852E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="16">IF(ISBLANK(F514),D514,F514)</f>
         <v>0</v>
       </c>
     </row>
@@ -14526,11 +14013,10 @@
         <v>1.387010235339403E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="17">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D578" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14545,11 +14031,10 @@
         <v>0.21744649112224579</v>
       </c>
       <c r="D516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14564,11 +14049,10 @@
         <v>1.363340485841036E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14583,11 +14067,10 @@
         <v>1.373379863798618E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14602,11 +14085,10 @@
         <v>1.3857352547347551E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14621,11 +14103,10 @@
         <v>1.3707355596125129E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14640,11 +14121,10 @@
         <v>2.244678512215614E-2</v>
       </c>
       <c r="D521">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E521">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14659,11 +14139,10 @@
         <v>1.4195103198289869E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14678,11 +14157,10 @@
         <v>1.437720656394958E-2</v>
       </c>
       <c r="D523">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14697,11 +14175,10 @@
         <v>1.3933561742305761E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14716,11 +14193,10 @@
         <v>2.589916996657848E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14735,11 +14211,10 @@
         <v>1.4040570706129071E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14754,11 +14229,10 @@
         <v>0.2175530940294266</v>
       </c>
       <c r="D527">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14773,11 +14247,10 @@
         <v>0.21754571795463559</v>
       </c>
       <c r="D528">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14792,11 +14265,10 @@
         <v>0.98526924848556519</v>
       </c>
       <c r="D529">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E529">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14811,11 +14283,10 @@
         <v>3.3955462276935577E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14830,11 +14301,10 @@
         <v>1.397745311260223E-2</v>
       </c>
       <c r="D531">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E531">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14849,11 +14319,10 @@
         <v>0.9853401780128479</v>
       </c>
       <c r="D532">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E532">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F532">
@@ -14871,11 +14340,10 @@
         <v>0.98546880483627319</v>
       </c>
       <c r="D533">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E533">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14890,11 +14358,10 @@
         <v>1.377374585717916E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14909,11 +14376,10 @@
         <v>7.0695415139198303E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14928,11 +14394,10 @@
         <v>1.429777126759291E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14947,11 +14412,10 @@
         <v>2.321252599358559E-2</v>
       </c>
       <c r="D537">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14966,11 +14430,10 @@
         <v>0.98535293340682983</v>
       </c>
       <c r="D538">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E538">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14985,11 +14448,10 @@
         <v>1.505120098590851E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15004,11 +14466,10 @@
         <v>0.21759368479251859</v>
       </c>
       <c r="D540">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E540">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15023,11 +14484,10 @@
         <v>0.98547005653381348</v>
       </c>
       <c r="D541">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E541">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F541">
@@ -15045,11 +14505,10 @@
         <v>0.73249632120132446</v>
       </c>
       <c r="D542">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E542">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F542">
@@ -15067,11 +14526,10 @@
         <v>0.98547583818435669</v>
       </c>
       <c r="D543">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E543">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15086,11 +14544,10 @@
         <v>1.9186753779649731E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15105,11 +14562,10 @@
         <v>0.98534554243087769</v>
       </c>
       <c r="D545">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E545">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15124,11 +14580,10 @@
         <v>1.9739333540201191E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15143,11 +14598,10 @@
         <v>0.98535799980163574</v>
       </c>
       <c r="D547">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E547">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15162,11 +14616,10 @@
         <v>1.3870782218873501E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15181,11 +14634,10 @@
         <v>0.98547989130020142</v>
       </c>
       <c r="D549">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E549">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F549">
@@ -15203,11 +14655,10 @@
         <v>1.3643147423863409E-2</v>
       </c>
       <c r="D550">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15222,11 +14673,10 @@
         <v>1.498246844857931E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15241,11 +14691,10 @@
         <v>0.98534989356994629</v>
       </c>
       <c r="D552">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E552">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15260,11 +14709,10 @@
         <v>0.9850776195526123</v>
       </c>
       <c r="D553">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E553">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15279,11 +14727,10 @@
         <v>1.404016185551882E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15298,11 +14745,10 @@
         <v>1.3873429968953129E-2</v>
       </c>
       <c r="D555">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E555">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15317,11 +14763,10 @@
         <v>1.382627245038748E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15336,11 +14781,10 @@
         <v>1.4972859993577E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15355,11 +14799,10 @@
         <v>1.375285256654024E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15374,11 +14817,10 @@
         <v>1.399246416985989E-2</v>
       </c>
       <c r="D559">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E559">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15393,11 +14835,10 @@
         <v>1.4064664952456949E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15412,11 +14853,10 @@
         <v>1.409070752561092E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15431,11 +14871,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D562">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15450,11 +14889,10 @@
         <v>1.366678811609745E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15469,11 +14907,10 @@
         <v>0.98477441072463989</v>
       </c>
       <c r="D564">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E564">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15488,11 +14925,10 @@
         <v>0.98547422885894775</v>
       </c>
       <c r="D565">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E565">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15507,11 +14943,10 @@
         <v>1.434215903282166E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15526,11 +14961,10 @@
         <v>1.3609251007437709E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15545,11 +14979,10 @@
         <v>0.98527050018310547</v>
       </c>
       <c r="D568">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E568">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15564,11 +14997,10 @@
         <v>1.4036933891475201E-2</v>
       </c>
       <c r="D569">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E569">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15583,11 +15015,10 @@
         <v>0.98142129182815552</v>
       </c>
       <c r="D570">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E570">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15602,11 +15033,10 @@
         <v>0.98544353246688843</v>
       </c>
       <c r="D571">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E571">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15621,11 +15051,10 @@
         <v>0.98544645309448242</v>
       </c>
       <c r="D572">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E572">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15640,11 +15069,10 @@
         <v>0.14817732572555539</v>
       </c>
       <c r="D573">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E573">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15659,11 +15087,10 @@
         <v>0.98533695936203003</v>
       </c>
       <c r="D574">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E574">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15678,11 +15105,10 @@
         <v>1.409406680613756E-2</v>
       </c>
       <c r="D575">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15697,11 +15123,10 @@
         <v>0.98505812883377075</v>
       </c>
       <c r="D576">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E576">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15716,11 +15141,10 @@
         <v>0.9715004563331604</v>
       </c>
       <c r="D577">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E577">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F577">
@@ -15738,11 +15162,10 @@
         <v>4.1036538779735572E-2</v>
       </c>
       <c r="D578">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" ref="E578:E641" si="18">IF(ISBLANK(F578),D578,F578)</f>
         <v>0</v>
       </c>
     </row>
@@ -15757,11 +15180,10 @@
         <v>0.98542922735214233</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D642" si="19">IF(C579&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D579:D642" si="9">IF(C579&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E579">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15776,11 +15198,10 @@
         <v>0.98547375202178955</v>
       </c>
       <c r="D580">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E580">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15795,11 +15216,10 @@
         <v>0.98546600341796875</v>
       </c>
       <c r="D581">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E581">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15814,11 +15234,10 @@
         <v>0.9854743480682373</v>
       </c>
       <c r="D582">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E582">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15833,11 +15252,10 @@
         <v>0.98546355962753296</v>
       </c>
       <c r="D583">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E583">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15852,11 +15270,10 @@
         <v>0.98546820878982544</v>
       </c>
       <c r="D584">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E584">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15871,11 +15288,10 @@
         <v>1.3612669892609119E-2</v>
       </c>
       <c r="D585">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15890,11 +15306,10 @@
         <v>1.377666741609573E-2</v>
       </c>
       <c r="D586">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E586">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15909,11 +15324,10 @@
         <v>2.8691971674561501E-2</v>
       </c>
       <c r="D587">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E587">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15928,11 +15342,10 @@
         <v>1.3857012614607809E-2</v>
       </c>
       <c r="D588">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E588">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15947,11 +15360,10 @@
         <v>1.357287727296352E-2</v>
       </c>
       <c r="D589">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E589">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15966,11 +15378,10 @@
         <v>1.36022949591279E-2</v>
       </c>
       <c r="D590">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15985,11 +15396,10 @@
         <v>1.387591566890478E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16004,11 +15414,10 @@
         <v>1.469990983605385E-2</v>
       </c>
       <c r="D592">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E592">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16023,11 +15432,10 @@
         <v>1.640997268259525E-2</v>
       </c>
       <c r="D593">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E593">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16042,11 +15450,10 @@
         <v>1.3641102239489561E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16061,11 +15468,10 @@
         <v>0.97154474258422852</v>
       </c>
       <c r="D595">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E595">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16080,11 +15486,10 @@
         <v>0.95985931158065796</v>
       </c>
       <c r="D596">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E596">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F596">
@@ -16102,11 +15507,10 @@
         <v>0.98447257280349731</v>
       </c>
       <c r="D597">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E597">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F597">
@@ -16124,11 +15528,10 @@
         <v>3.5310588777065277E-2</v>
       </c>
       <c r="D598">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E598">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16143,11 +15546,10 @@
         <v>1.566878147423267E-2</v>
       </c>
       <c r="D599">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E599">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16162,11 +15564,10 @@
         <v>0.2173302620649338</v>
       </c>
       <c r="D600">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16181,11 +15582,10 @@
         <v>3.6720540374517441E-2</v>
       </c>
       <c r="D601">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16200,11 +15600,10 @@
         <v>4.4704984873533249E-2</v>
       </c>
       <c r="D602">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16219,11 +15618,10 @@
         <v>1.381213124841452E-2</v>
       </c>
       <c r="D603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E603">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16238,11 +15636,10 @@
         <v>0.98544937372207642</v>
       </c>
       <c r="D604">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E604">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F604">
@@ -16260,11 +15657,10 @@
         <v>1.4038207940757269E-2</v>
       </c>
       <c r="D605">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E605">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16279,11 +15675,10 @@
         <v>1.463707070797682E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16298,11 +15693,10 @@
         <v>1.3697586953639981E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16317,11 +15711,10 @@
         <v>1.3764297589659691E-2</v>
       </c>
       <c r="D608">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E608">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16336,11 +15729,10 @@
         <v>0.98536914587020874</v>
       </c>
       <c r="D609">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E609">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F609">
@@ -16358,11 +15750,10 @@
         <v>1.368194725364447E-2</v>
       </c>
       <c r="D610">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E610">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16377,11 +15768,10 @@
         <v>0.98546957969665527</v>
       </c>
       <c r="D611">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E611">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16396,11 +15786,10 @@
         <v>1.393930800259113E-2</v>
       </c>
       <c r="D612">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E612">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16415,11 +15804,10 @@
         <v>1.366902608424425E-2</v>
       </c>
       <c r="D613">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E613">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16434,11 +15822,10 @@
         <v>1.3715893961489201E-2</v>
       </c>
       <c r="D614">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E614">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16453,11 +15840,10 @@
         <v>1.3778443448245531E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16472,11 +15858,10 @@
         <v>5.9631675481796258E-2</v>
       </c>
       <c r="D616">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E616">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16491,11 +15876,10 @@
         <v>0.98296308517456055</v>
       </c>
       <c r="D617">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E617">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F617">
@@ -16513,11 +15897,10 @@
         <v>1.380519662052393E-2</v>
       </c>
       <c r="D618">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E618">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16532,11 +15915,10 @@
         <v>1.3704602606594561E-2</v>
       </c>
       <c r="D619">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E619">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16551,11 +15933,10 @@
         <v>1.358857285231352E-2</v>
       </c>
       <c r="D620">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E620">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16570,11 +15951,10 @@
         <v>1.361001282930374E-2</v>
       </c>
       <c r="D621">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16589,11 +15969,10 @@
         <v>1.3902607373893259E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16608,11 +15987,10 @@
         <v>1.387305185198784E-2</v>
       </c>
       <c r="D623">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E623">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16627,11 +16005,10 @@
         <v>4.6875234693288803E-2</v>
       </c>
       <c r="D624">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16646,11 +16023,10 @@
         <v>1.393775641918182E-2</v>
       </c>
       <c r="D625">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E625">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16665,11 +16041,10 @@
         <v>1.394684799015522E-2</v>
       </c>
       <c r="D626">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E626">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16684,11 +16059,10 @@
         <v>1.438567508012056E-2</v>
       </c>
       <c r="D627">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E627">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16703,11 +16077,10 @@
         <v>1.5745066106319431E-2</v>
       </c>
       <c r="D628">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E628">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16722,11 +16095,10 @@
         <v>1.389886252582073E-2</v>
       </c>
       <c r="D629">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E629">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16741,11 +16113,10 @@
         <v>1.419341377913952E-2</v>
       </c>
       <c r="D630">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E630">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16760,11 +16131,10 @@
         <v>1.382850855588913E-2</v>
       </c>
       <c r="D631">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E631">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16779,11 +16149,10 @@
         <v>7.1594730019569397E-2</v>
       </c>
       <c r="D632">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E632">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16798,11 +16167,10 @@
         <v>1.3731531798839571E-2</v>
       </c>
       <c r="D633">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E633">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16817,11 +16185,10 @@
         <v>0.2175859808921814</v>
       </c>
       <c r="D634">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E634">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16836,11 +16203,10 @@
         <v>2.3001993075013161E-2</v>
       </c>
       <c r="D635">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E635">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16855,11 +16221,10 @@
         <v>1.4245696365833281E-2</v>
       </c>
       <c r="D636">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E636">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16874,11 +16239,10 @@
         <v>1.436641346663237E-2</v>
       </c>
       <c r="D637">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E637">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16893,11 +16257,10 @@
         <v>1.398066710680723E-2</v>
       </c>
       <c r="D638">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E638">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16912,11 +16275,10 @@
         <v>0.2174892723560333</v>
       </c>
       <c r="D639">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E639">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16931,11 +16293,10 @@
         <v>0.8925323486328125</v>
       </c>
       <c r="D640">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E640">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F640">
@@ -16953,11 +16314,10 @@
         <v>1.4844111166894439E-2</v>
       </c>
       <c r="D641">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E641">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16972,11 +16332,10 @@
         <v>1.3675513677299019E-2</v>
       </c>
       <c r="D642">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E642">
-        <f t="shared" ref="E642:E693" si="20">IF(ISBLANK(F642),D642,F642)</f>
         <v>0</v>
       </c>
     </row>
@@ -16991,11 +16350,10 @@
         <v>1.869061216711998E-2</v>
       </c>
       <c r="D643">
-        <f t="shared" ref="D643:D693" si="21">IF(C643&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D643:D693" si="10">IF(C643&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E643">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17010,11 +16368,10 @@
         <v>1.451504789292812E-2</v>
       </c>
       <c r="D644">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E644">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17029,11 +16386,10 @@
         <v>1.3622168451547619E-2</v>
       </c>
       <c r="D645">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E645">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17048,11 +16404,10 @@
         <v>1.368295680731535E-2</v>
       </c>
       <c r="D646">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E646">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17067,11 +16422,10 @@
         <v>1.449934113770723E-2</v>
       </c>
       <c r="D647">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E647">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17086,11 +16440,10 @@
         <v>1.529114041477442E-2</v>
       </c>
       <c r="D648">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E648">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17105,11 +16458,10 @@
         <v>1.3878329657018179E-2</v>
       </c>
       <c r="D649">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E649">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17124,11 +16476,10 @@
         <v>0.21736536920070651</v>
       </c>
       <c r="D650">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E650">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17143,11 +16494,10 @@
         <v>1.3774555176496509E-2</v>
       </c>
       <c r="D651">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E651">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17162,11 +16512,10 @@
         <v>1.982978172600269E-2</v>
       </c>
       <c r="D652">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E652">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17181,11 +16530,10 @@
         <v>1.368645206093788E-2</v>
       </c>
       <c r="D653">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E653">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17200,11 +16548,10 @@
         <v>2.7933889999985691E-2</v>
       </c>
       <c r="D654">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E654">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17219,11 +16566,10 @@
         <v>1.3582233339548109E-2</v>
       </c>
       <c r="D655">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E655">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17238,11 +16584,10 @@
         <v>0.97755229473114014</v>
       </c>
       <c r="D656">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E656">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17257,11 +16602,10 @@
         <v>1.35953351855278E-2</v>
       </c>
       <c r="D657">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E657">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17276,11 +16620,10 @@
         <v>0.98541635274887085</v>
       </c>
       <c r="D658">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E658">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F658">
@@ -17298,11 +16641,10 @@
         <v>2.0526757463812832E-2</v>
       </c>
       <c r="D659">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E659">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17317,11 +16659,10 @@
         <v>1.5537295490503309E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17336,11 +16677,10 @@
         <v>1.382867805659771E-2</v>
       </c>
       <c r="D661">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E661">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17355,11 +16695,10 @@
         <v>1.3801931403577329E-2</v>
       </c>
       <c r="D662">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E662">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17374,11 +16713,10 @@
         <v>3.9585072547197342E-2</v>
       </c>
       <c r="D663">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E663">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17393,11 +16731,10 @@
         <v>0.98529911041259766</v>
       </c>
       <c r="D664">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E664">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17412,11 +16749,10 @@
         <v>1.3752167113125321E-2</v>
       </c>
       <c r="D665">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E665">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17431,11 +16767,10 @@
         <v>1.3818296603858469E-2</v>
       </c>
       <c r="D666">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E666">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17450,11 +16785,10 @@
         <v>3.1977731734514243E-2</v>
       </c>
       <c r="D667">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E667">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17469,11 +16803,10 @@
         <v>1.412918698042631E-2</v>
       </c>
       <c r="D668">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E668">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17488,11 +16821,10 @@
         <v>1.367474161088467E-2</v>
       </c>
       <c r="D669">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E669">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17507,11 +16839,10 @@
         <v>1.364796049892902E-2</v>
       </c>
       <c r="D670">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E670">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17526,11 +16857,10 @@
         <v>1.3947071507573129E-2</v>
       </c>
       <c r="D671">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E671">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17545,11 +16875,10 @@
         <v>0.98489338159561157</v>
       </c>
       <c r="D672">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E672">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F672">
@@ -17567,11 +16896,10 @@
         <v>1.6962220892310139E-2</v>
       </c>
       <c r="D673">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E673">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17586,11 +16914,10 @@
         <v>0.1034374013543129</v>
       </c>
       <c r="D674">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E674">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17605,11 +16932,10 @@
         <v>1.4235915616154671E-2</v>
       </c>
       <c r="D675">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E675">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17624,11 +16950,10 @@
         <v>0.98546707630157471</v>
       </c>
       <c r="D676">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E676">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17643,11 +16968,10 @@
         <v>0.98526626825332642</v>
       </c>
       <c r="D677">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E677">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17662,11 +16986,10 @@
         <v>1.595532521605492E-2</v>
       </c>
       <c r="D678">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E678">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17681,11 +17004,10 @@
         <v>1.377030648291111E-2</v>
       </c>
       <c r="D679">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E679">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17700,11 +17022,10 @@
         <v>2.4052264168858532E-2</v>
       </c>
       <c r="D680">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E680">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17719,11 +17040,10 @@
         <v>1.402930077165365E-2</v>
       </c>
       <c r="D681">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E681">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17738,11 +17058,10 @@
         <v>1.373871508985758E-2</v>
       </c>
       <c r="D682">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E682">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17757,11 +17076,10 @@
         <v>0.66560214757919312</v>
       </c>
       <c r="D683">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E683">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F683">
@@ -17779,11 +17097,10 @@
         <v>1.389260310679674E-2</v>
       </c>
       <c r="D684">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E684">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17798,11 +17115,10 @@
         <v>1.4515437185764309E-2</v>
       </c>
       <c r="D685">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E685">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17817,11 +17133,10 @@
         <v>2.098418585956097E-2</v>
       </c>
       <c r="D686">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E686">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17836,11 +17151,10 @@
         <v>0.9852907657623291</v>
       </c>
       <c r="D687">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E687">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F687">
@@ -17858,11 +17172,10 @@
         <v>0.98547321557998657</v>
       </c>
       <c r="D688">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E688">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17877,11 +17190,10 @@
         <v>0.98538821935653687</v>
       </c>
       <c r="D689">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E689">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17896,11 +17208,10 @@
         <v>0.9854743480682373</v>
       </c>
       <c r="D690">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E690">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17915,11 +17226,10 @@
         <v>1.3699932023882869E-2</v>
       </c>
       <c r="D691">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E691">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17934,11 +17244,10 @@
         <v>1.378010772168636E-2</v>
       </c>
       <c r="D692">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E692">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17953,11 +17262,10 @@
         <v>0.98545897006988525</v>
       </c>
       <c r="D693">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E693">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F693">
